--- a/all.xlsx
+++ b/all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\candps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40082367\Desktop\CPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -236,6 +236,18 @@
   <si>
     <t>Total Speedup</t>
   </si>
+  <si>
+    <t>Speedup (With Simd)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>128 Simd</t>
+  </si>
+  <si>
+    <t>256 Simd</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +569,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -674,7 +692,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -717,12 +735,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -762,6 +786,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -835,11 +860,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$A$29</c:f>
+              <c:f>all!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Threads: 1 Simd256</c:v>
+                  <c:v>256 Simd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -857,48 +882,49 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$B$27:$F$27</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>all!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Allocate Memory</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create Input Numbers</c:v>
+                  <c:v>0.46212269205041212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gaussian_eliminate</c:v>
+                  <c:v>0.55343432370195411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Solve</c:v>
+                  <c:v>0.67834034819774225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Validate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$29:$F$29</c:f>
+              <c:f>all!$B$61:$F$61</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>0.45483477569014652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147.536</c:v>
+                  <c:v>0.57517102851888324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.20099999999999</c:v>
+                  <c:v>0.65853642630284925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>153.33699999999999</c:v>
+                  <c:v>0.62266119723224012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,11 +936,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$A$32</c:f>
+              <c:f>all!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Threads: 2 Simd256</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -932,48 +958,37 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$B$27:$F$27</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>all!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Allocate Memory</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create Input Numbers</c:v>
+                  <c:v>0.46212269205041212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gaussian_eliminate</c:v>
+                  <c:v>0.55343432370195411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Solve</c:v>
+                  <c:v>0.67834034819774225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Validate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$32:$F$32</c:f>
+              <c:f>all!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.45399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2719999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.126999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.759999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.593999999999994</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,12 +1000,9 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$A$35</c:f>
+              <c:f>all!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Threads: 3 Simd256</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1009,49 +1021,35 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$B$27:$F$27</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>all!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Allocate Memory</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create Input Numbers</c:v>
+                  <c:v>0.46212269205041212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gaussian_eliminate</c:v>
+                  <c:v>0.55343432370195411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Solve</c:v>
+                  <c:v>0.67834034819774225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Validate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$35:$F$35</c:f>
+              <c:f>all!$B$63:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.45699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.713999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.292000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.141999999999996</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1062,12 +1060,9 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$A$38</c:f>
+              <c:f>all!$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Threads: 4 Simd256</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1086,49 +1081,35 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$B$27:$F$27</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>all!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Allocate Memory</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create Input Numbers</c:v>
+                  <c:v>0.46212269205041212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gaussian_eliminate</c:v>
+                  <c:v>0.55343432370195411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Solve</c:v>
+                  <c:v>0.67834034819774225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Validate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$38:$F$38</c:f>
+              <c:f>all!$B$66:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.48099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2829999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.896000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52.358999999999995</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1139,12 +1120,9 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$A$41</c:f>
+              <c:f>all!$A$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Threads: 5 Simd256</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1164,49 +1142,35 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$B$27:$F$27</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>all!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Allocate Memory</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create Input Numbers</c:v>
+                  <c:v>0.46212269205041212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gaussian_eliminate</c:v>
+                  <c:v>0.55343432370195411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Solve</c:v>
+                  <c:v>0.67834034819774225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Validate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$41:$F$41</c:f>
+              <c:f>all!$B$69:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.45499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5659999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.021999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52.620999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.859999999999992</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1217,12 +1181,9 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$A$44</c:f>
+              <c:f>all!$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Threads: 6 Simd256</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1242,49 +1203,35 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$B$27:$F$27</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>all!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Allocate Memory</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create Input Numbers</c:v>
+                  <c:v>0.46212269205041212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gaussian_eliminate</c:v>
+                  <c:v>0.55343432370195411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Solve</c:v>
+                  <c:v>0.67834034819774225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Validate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$44:$F$44</c:f>
+              <c:f>all!$B$72:$F$72</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.668999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.321999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54.037999999999997</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1295,12 +1242,9 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$A$47</c:f>
+              <c:f>all!$A$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Threads: 7 Simd256</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1319,49 +1263,35 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$B$27:$F$27</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>all!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Allocate Memory</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create Input Numbers</c:v>
+                  <c:v>0.46212269205041212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gaussian_eliminate</c:v>
+                  <c:v>0.55343432370195411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Solve</c:v>
+                  <c:v>0.67834034819774225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Validate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$47:$F$47</c:f>
+              <c:f>all!$B$75:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.54599999999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.820999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.504999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.274999999999991</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1372,12 +1302,9 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$A$50</c:f>
+              <c:f>all!$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Threads: 8 Simd256</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1396,49 +1323,35 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>all!$B$27:$F$27</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>all!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Allocate Memory</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create Input Numbers</c:v>
+                  <c:v>0.46212269205041212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gaussian_eliminate</c:v>
+                  <c:v>0.55343432370195411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Solve</c:v>
+                  <c:v>0.67834034819774225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Validate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$50:$F$50</c:f>
+              <c:f>all!$B$78:$F$78</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.50800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44.616</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.325000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.047000000000004</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1453,8 +1366,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="580919736"/>
-        <c:axId val="580922088"/>
+        <c:axId val="286293352"/>
+        <c:axId val="286292960"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1466,14 +1379,14 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$28</c15:sqref>
+                          <c15:sqref>all!$A$60</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Threads: 1 Simd128</c:v>
+                        <c:v>128 Simd</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1491,60 +1404,61 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
+                  <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:strCache>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
+                        <c:v>0.46212269205041212</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
+                        <c:v>0.55343432370195411</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Solve</c:v>
+                        <c:v>0.67834034819774225</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Validate</c:v>
+                        <c:v>0.62747222172891248</c:v>
                       </c:pt>
-                    </c:strCache>
-                  </c:strRef>
+                    </c:numCache>
+                  </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$28:$F$28</c15:sqref>
+                          <c15:sqref>all!$B$60:$F$60</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>0.44500000000000001</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.4450000000000003</c:v>
+                        <c:v>0.40606271436766878</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>158.124</c:v>
+                        <c:v>0.55890609933233237</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>158.79499999999999</c:v>
+                        <c:v>0.67059699488569091</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>163.85399999999998</c:v>
+                        <c:v>0.62740000244119765</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1558,17 +1472,17 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$30</c15:sqref>
+                          <c15:sqref>all!#REF!</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Threads: 1 No Simd</c:v>
+                        <c:v>#REF!</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1586,60 +1500,49 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$30:$F$30</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>0.47699999999999998</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.6959999999999997</c:v>
+                        <c:v>0.46212269205041212</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>162.96699999999998</c:v>
+                        <c:v>0.55343432370195411</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>163.65499999999997</c:v>
+                        <c:v>0.67834034819774225</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>168.92699999999996</c:v>
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1653,17 +1556,17 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$31</c15:sqref>
+                          <c15:sqref>all!#REF!</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Threads: 2 Simd128</c:v>
+                        <c:v>#REF!</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1681,60 +1584,49 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$31:$F$31</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>0.45599999999999996</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.8170000000000002</c:v>
+                        <c:v>0.46212269205041212</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>91.170999999999992</c:v>
+                        <c:v>0.55343432370195411</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>91.828999999999994</c:v>
+                        <c:v>0.67834034819774225</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>97.318999999999988</c:v>
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1748,17 +1640,17 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$33</c15:sqref>
+                          <c15:sqref>all!#REF!</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Threads: 2 No Simd</c:v>
+                        <c:v>#REF!</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1776,60 +1668,49 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$33:$F$33</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>0.42399999999999999</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.907</c:v>
+                        <c:v>0.46212269205041212</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>84.662999999999997</c:v>
+                        <c:v>0.55343432370195411</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>85.343000000000004</c:v>
+                        <c:v>0.67834034819774225</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>90.862000000000009</c:v>
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1843,17 +1724,17 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$34</c15:sqref>
+                          <c15:sqref>all!#REF!</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Threads: 3 Simd128</c:v>
+                        <c:v>#REF!</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1873,60 +1754,49 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$34:$F$34</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>0.45599999999999996</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.9770000000000003</c:v>
+                        <c:v>0.46212269205041212</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>65.98</c:v>
+                        <c:v>0.55343432370195411</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>66.64</c:v>
+                        <c:v>0.67834034819774225</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>72.275000000000006</c:v>
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1940,18 +1810,15 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$36</c15:sqref>
+                          <c15:sqref>all!$A$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 3 No Simd</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1970,61 +1837,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$36:$F$36</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$64:$F$64</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.44500000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.8159999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>69.301999999999992</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>69.97699999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>75.436999999999983</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2037,18 +1890,15 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$37</c15:sqref>
+                          <c15:sqref>all!$A$65</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 4 Simd128</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2067,61 +1917,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$37:$F$37</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$65:$F$65</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.42499999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6.1419999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>47.652000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>48.192999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>53.973999999999997</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2134,18 +1970,15 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$39</c15:sqref>
+                          <c15:sqref>all!$A$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 4 No Simd</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2164,61 +1997,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$39:$F$39</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$67:$F$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.442</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.7210000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>48.387</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>49.01</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>54.336999999999996</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2231,18 +2050,15 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$40</c15:sqref>
+                          <c15:sqref>all!$A$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 5 Simd128</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2262,61 +2078,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$40:$F$40</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$68:$F$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.45399999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.6569999999999991</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>55.148999999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>55.813999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>61.051999999999992</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2329,18 +2131,15 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$42</c15:sqref>
+                          <c15:sqref>all!$A$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 5 No Simd</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2360,61 +2159,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$42:$F$42</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$70:$F$70</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.45599999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.8699999999999992</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>56.761999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>57.432999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>62.929999999999993</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2427,18 +2212,15 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$43</c15:sqref>
+                          <c15:sqref>all!$A$71</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 6 Simd128</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2458,61 +2240,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$43:$F$43</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$71:$F$71</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.48399999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6.0119999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>49.055999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>49.747</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>55.405000000000001</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2525,18 +2293,15 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$45</c15:sqref>
+                          <c15:sqref>all!$A$73</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 6 No Simd</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2556,61 +2321,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$45:$F$45</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$73:$F$73</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.496</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6.2940000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>50.731999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>51.478999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>57.408000000000001</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2623,18 +2374,15 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$46</c15:sqref>
+                          <c15:sqref>all!$A$74</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 7 Simd128</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2653,61 +2401,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$46:$F$46</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$74:$F$74</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.51700000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.92</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>45.944000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>46.673000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>52.22</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2720,18 +2454,15 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$48</c15:sqref>
+                          <c15:sqref>all!$A$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 7 No Simd</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2750,61 +2481,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$48:$F$48</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$76:$F$76</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.52500000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6.5250000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>46.732999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>47.483999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>53.66</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2817,18 +2534,15 @@
                 <c:order val="21"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$49</c15:sqref>
+                          <c15:sqref>all!$A$77</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 8 Simd128</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2847,61 +2561,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$49:$F$49</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$77:$F$77</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.53400000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6.0089999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>49.448999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>50.227999999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>55.954999999999991</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2914,18 +2614,15 @@
                 <c:order val="23"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$A$51</c15:sqref>
+                          <c15:sqref>all!$A$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Threads: 8 No Simd</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2944,61 +2641,47 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>all!$B$27:$F$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>Allocate Memory</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Create Input Numbers</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>gaussian_eliminate</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Solve</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Validate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>all!$B$51:$F$51</c15:sqref>
+                          <c15:sqref>all!$B$59:$F$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.46212269205041212</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.55343432370195411</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.67834034819774225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.62747222172891248</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>all!$B$79:$F$79</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.51</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.5229999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>48.774000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>49.573999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>54.745999999999995</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3009,13 +2692,13 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="580919736"/>
+        <c:axId val="286293352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3052,7 +2735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580922088"/>
+        <c:crossAx val="286292960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3060,7 +2743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="580922088"/>
+        <c:axId val="286292960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -3081,7 +2764,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3112,7 +2795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580919736"/>
+        <c:crossAx val="286293352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3258,11 +2941,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$G$27</c:f>
+              <c:f>all!$G$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Speedup</c:v>
+                  <c:v>66%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3341,76 +3024,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>all!$A$28:$A$51</c15:sqref>
+                    <c15:sqref>all!$A$60:$A$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>all!$A$31:$A$51</c:f>
+              <c:f>all!$A$63:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>Threads: 2 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Threads: 2 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Threads: 2 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Threads: 3 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Threads: 3 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Threads: 3 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Threads: 4 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Threads: 4 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Threads: 4 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Threads: 5 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Threads: 5 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Threads: 5 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Threads: 6 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Threads: 6 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Threads: 6 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Threads: 7 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Threads: 7 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Threads: 7 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Threads: 8 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Threads: 8 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Threads: 8 No Simd</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3419,77 +3039,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>all!$G$28:$G$51</c15:sqref>
+                    <c15:sqref>all!$G$60:$G$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>all!$G$31:$G$51</c:f>
+              <c:f>all!$G$63:$G$79</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>40.606271436766875</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="0.00">
-                  <c:v>45.483477569014653</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>46.21226920504121</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>55.890609933233236</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>57.517102851888325</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>55.343432370195409</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>67.059699488569095</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>65.853642630284924</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>67.834034819774232</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>62.740000244119763</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>62.266119723224008</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>62.747222172891249</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>66.186361028720682</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>64.758668814441393</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>66.016089790264417</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>68.130164658781595</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>68.517057200806079</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>68.234799647184872</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>65.850696351630106</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>66.709274343439617</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>67.591918402623619</c:v>
-                </c:pt>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3505,11 +3062,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="580912288"/>
-        <c:axId val="580918952"/>
+        <c:axId val="286292176"/>
+        <c:axId val="286291784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="580912288"/>
+        <c:axId val="286292176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3552,7 +3109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580918952"/>
+        <c:crossAx val="286291784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3560,7 +3117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="580918952"/>
+        <c:axId val="286291784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3137,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3611,7 +3168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580912288"/>
+        <c:crossAx val="286292176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3730,76 +3287,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>all!$A$28:$A$51</c15:sqref>
+                    <c15:sqref>all!$A$60:$A$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>all!$A$31:$A$51</c:f>
+              <c:f>all!$A$63:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>Threads: 2 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Threads: 2 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Threads: 2 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Threads: 3 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Threads: 3 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Threads: 3 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Threads: 4 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Threads: 4 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Threads: 4 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Threads: 5 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Threads: 5 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Threads: 5 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Threads: 6 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Threads: 6 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Threads: 6 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Threads: 7 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Threads: 7 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Threads: 7 No Simd</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Threads: 8 Simd128</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Threads: 8 Simd256</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Threads: 8 No Simd</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3808,77 +3302,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>all!$H$28:$H$51</c15:sqref>
+                    <c15:sqref>all!$H$60:$H$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>all!$H$31:$H$51</c:f>
+              <c:f>all!$H$63:$H$79</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>42.389908066798078</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="0.00">
-                  <c:v>50.514719375825059</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>46.21226920504121</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>57.215246822591993</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>61.437780816565734</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>55.343432370195409</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>68.048920539641372</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>69.004954802962231</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>67.834034819774232</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>63.858944988071762</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>65.748518590870617</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>62.747222172891249</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>67.201809065454299</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>68.011034352116596</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>66.016089790264417</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>69.087238866492612</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>71.422567144387813</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>68.234799647184872</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>66.87622464141316</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>69.781621647220391</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>67.591918402623619</c:v>
-                </c:pt>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3893,11 +3324,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="568328784"/>
-        <c:axId val="568320160"/>
+        <c:axId val="286291000"/>
+        <c:axId val="286290608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="568328784"/>
+        <c:axId val="286291000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568320160"/>
+        <c:crossAx val="286290608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +3379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568320160"/>
+        <c:axId val="286290608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,7 +3399,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3999,7 +3430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568328784"/>
+        <c:crossAx val="286291000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4011,6 +3442,1135 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speedup (Realtive To</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Simd</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3872707786526684"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46212269205041212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55343432370195411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67834034819774225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66016089790264421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68234799647184874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67591918402623619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 Simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$B$60:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40606271436766878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55890609933233237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67059699488569091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62740000244119765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66186361028720686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.681301646587816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65850696351630111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 Simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$B$61:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45483477569014652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57517102851888324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65853642630284925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62266119723224012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64758668814441389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68517057200806075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66709274343439617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="291780336"/>
+        <c:axId val="291779160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="291780336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291779160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291779160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291780336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Total Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46212269205041212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55343432370195411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67834034819774225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62747222172891248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66016089790264421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68234799647184874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67591918402623619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 Simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$B$55:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.0030723330195765E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42389908066798077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57215246822591992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68048920539641378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63858944988071764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67201809065454299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69087238866492617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66876224641413162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 Simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.2288384923665118E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50514719375825057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61437780816565735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69004954802962226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65748518590870619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68011034352116595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71422567144387816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69781621647220393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="292162096"/>
+        <c:axId val="352380336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292162096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352380336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="352380336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292162096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4168,6 +4728,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5690,20 +6330,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563095</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>168648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>300877</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>187698</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5724,16 +7396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1624012</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212069</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463362</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>130548</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5755,15 +7427,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1595436</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107297</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5777,6 +7449,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>818028</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>100851</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655543</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>806823</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6048,22 +7780,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -6126,16 +7858,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -6162,33 +7894,33 @@
         <v>8</v>
       </c>
       <c r="M2" s="1">
-        <v>445000</v>
+        <v>477000</v>
       </c>
       <c r="N2" s="1">
-        <v>5000000</v>
+        <v>5219000</v>
       </c>
       <c r="O2" s="1">
-        <v>152679000</v>
+        <v>157271000</v>
       </c>
       <c r="P2" s="1">
-        <v>671000</v>
+        <v>688000</v>
       </c>
       <c r="Q2" s="1">
-        <v>5059000</v>
+        <v>5272000</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -6215,33 +7947,33 @@
         <v>8</v>
       </c>
       <c r="M3" s="1">
-        <v>439000</v>
+        <v>445000</v>
       </c>
       <c r="N3" s="1">
-        <v>5061000</v>
+        <v>5000000</v>
       </c>
       <c r="O3" s="1">
-        <v>142036000</v>
+        <v>152679000</v>
       </c>
       <c r="P3" s="1">
-        <v>665000</v>
+        <v>671000</v>
       </c>
       <c r="Q3" s="1">
-        <v>5136000</v>
+        <v>5059000</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -6268,33 +8000,33 @@
         <v>8</v>
       </c>
       <c r="M4" s="1">
-        <v>477000</v>
+        <v>439000</v>
       </c>
       <c r="N4" s="1">
-        <v>5219000</v>
+        <v>5061000</v>
       </c>
       <c r="O4" s="1">
-        <v>157271000</v>
+        <v>142036000</v>
       </c>
       <c r="P4" s="1">
-        <v>688000</v>
+        <v>665000</v>
       </c>
       <c r="Q4" s="1">
-        <v>5272000</v>
+        <v>5136000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -6321,33 +8053,33 @@
         <v>8</v>
       </c>
       <c r="M5" s="1">
-        <v>456000</v>
+        <v>424000</v>
       </c>
       <c r="N5" s="1">
-        <v>5361000</v>
+        <v>5483000</v>
       </c>
       <c r="O5" s="1">
-        <v>85354000</v>
+        <v>78756000</v>
       </c>
       <c r="P5" s="1">
-        <v>658000</v>
+        <v>680000</v>
       </c>
       <c r="Q5" s="1">
-        <v>5490000</v>
+        <v>5519000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -6374,33 +8106,33 @@
         <v>8</v>
       </c>
       <c r="M6" s="1">
-        <v>454000</v>
+        <v>456000</v>
       </c>
       <c r="N6" s="1">
-        <v>4818000</v>
+        <v>5361000</v>
       </c>
       <c r="O6" s="1">
-        <v>72855000</v>
+        <v>85354000</v>
       </c>
       <c r="P6" s="1">
-        <v>633000</v>
+        <v>658000</v>
       </c>
       <c r="Q6" s="1">
-        <v>4834000</v>
+        <v>5490000</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -6427,33 +8159,33 @@
         <v>8</v>
       </c>
       <c r="M7" s="1">
-        <v>424000</v>
+        <v>454000</v>
       </c>
       <c r="N7" s="1">
-        <v>5483000</v>
+        <v>4818000</v>
       </c>
       <c r="O7" s="1">
-        <v>78756000</v>
+        <v>72855000</v>
       </c>
       <c r="P7" s="1">
-        <v>680000</v>
+        <v>633000</v>
       </c>
       <c r="Q7" s="1">
-        <v>5519000</v>
+        <v>4834000</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -6480,33 +8212,33 @@
         <v>8</v>
       </c>
       <c r="M8" s="1">
-        <v>456000</v>
+        <v>445000</v>
       </c>
       <c r="N8" s="1">
-        <v>5521000</v>
+        <v>5371000</v>
       </c>
       <c r="O8" s="1">
-        <v>60003000</v>
+        <v>63486000</v>
       </c>
       <c r="P8" s="1">
-        <v>660000</v>
+        <v>675000</v>
       </c>
       <c r="Q8" s="1">
-        <v>5635000</v>
+        <v>5460000</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -6533,33 +8265,33 @@
         <v>8</v>
       </c>
       <c r="M9" s="1">
-        <v>457000</v>
+        <v>456000</v>
       </c>
       <c r="N9" s="1">
-        <v>5743000</v>
+        <v>5521000</v>
       </c>
       <c r="O9" s="1">
-        <v>52514000</v>
+        <v>60003000</v>
       </c>
       <c r="P9" s="1">
-        <v>578000</v>
+        <v>660000</v>
       </c>
       <c r="Q9" s="1">
-        <v>5850000</v>
+        <v>5635000</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -6586,33 +8318,33 @@
         <v>8</v>
       </c>
       <c r="M10" s="1">
-        <v>445000</v>
+        <v>457000</v>
       </c>
       <c r="N10" s="1">
-        <v>5371000</v>
+        <v>5743000</v>
       </c>
       <c r="O10" s="1">
-        <v>63486000</v>
+        <v>52514000</v>
       </c>
       <c r="P10" s="1">
-        <v>675000</v>
+        <v>578000</v>
       </c>
       <c r="Q10" s="1">
-        <v>5460000</v>
+        <v>5850000</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -6639,33 +8371,33 @@
         <v>8</v>
       </c>
       <c r="M11" s="1">
-        <v>425000</v>
+        <v>442000</v>
       </c>
       <c r="N11" s="1">
-        <v>5717000</v>
+        <v>5279000</v>
       </c>
       <c r="O11" s="1">
-        <v>41510000</v>
+        <v>42666000</v>
       </c>
       <c r="P11" s="1">
-        <v>541000</v>
+        <v>623000</v>
       </c>
       <c r="Q11" s="1">
-        <v>5781000</v>
+        <v>5327000</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -6692,33 +8424,33 @@
         <v>8</v>
       </c>
       <c r="M12" s="1">
-        <v>481000</v>
+        <v>425000</v>
       </c>
       <c r="N12" s="1">
-        <v>5802000</v>
+        <v>5717000</v>
       </c>
       <c r="O12" s="1">
-        <v>39613000</v>
+        <v>41510000</v>
       </c>
       <c r="P12" s="1">
-        <v>550000</v>
+        <v>541000</v>
       </c>
       <c r="Q12" s="1">
-        <v>5913000</v>
+        <v>5781000</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -6745,33 +8477,33 @@
         <v>8</v>
       </c>
       <c r="M13" s="1">
-        <v>442000</v>
+        <v>481000</v>
       </c>
       <c r="N13" s="1">
-        <v>5279000</v>
+        <v>5802000</v>
       </c>
       <c r="O13" s="1">
-        <v>42666000</v>
+        <v>39613000</v>
       </c>
       <c r="P13" s="1">
-        <v>623000</v>
+        <v>550000</v>
       </c>
       <c r="Q13" s="1">
-        <v>5327000</v>
+        <v>5913000</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -6798,33 +8530,33 @@
         <v>8</v>
       </c>
       <c r="M14" s="1">
-        <v>454000</v>
+        <v>456000</v>
       </c>
       <c r="N14" s="1">
-        <v>5203000</v>
+        <v>5414000</v>
       </c>
       <c r="O14" s="1">
-        <v>49492000</v>
+        <v>50892000</v>
       </c>
       <c r="P14" s="1">
-        <v>665000</v>
+        <v>671000</v>
       </c>
       <c r="Q14" s="1">
-        <v>5238000</v>
+        <v>5497000</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -6851,33 +8583,33 @@
         <v>8</v>
       </c>
       <c r="M15" s="1">
-        <v>455000</v>
+        <v>454000</v>
       </c>
       <c r="N15" s="1">
-        <v>5111000</v>
+        <v>5203000</v>
       </c>
       <c r="O15" s="1">
-        <v>46456000</v>
+        <v>49492000</v>
       </c>
       <c r="P15" s="1">
-        <v>599000</v>
+        <v>665000</v>
       </c>
       <c r="Q15" s="1">
-        <v>5239000</v>
+        <v>5238000</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -6904,33 +8636,33 @@
         <v>8</v>
       </c>
       <c r="M16" s="1">
-        <v>456000</v>
+        <v>455000</v>
       </c>
       <c r="N16" s="1">
-        <v>5414000</v>
+        <v>5111000</v>
       </c>
       <c r="O16" s="1">
-        <v>50892000</v>
+        <v>46456000</v>
       </c>
       <c r="P16" s="1">
-        <v>671000</v>
+        <v>599000</v>
       </c>
       <c r="Q16" s="1">
-        <v>5497000</v>
+        <v>5239000</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -6957,33 +8689,33 @@
         <v>8</v>
       </c>
       <c r="M17" s="1">
-        <v>484000</v>
+        <v>496000</v>
       </c>
       <c r="N17" s="1">
-        <v>5528000</v>
+        <v>5798000</v>
       </c>
       <c r="O17" s="1">
-        <v>43044000</v>
+        <v>44438000</v>
       </c>
       <c r="P17" s="1">
-        <v>691000</v>
+        <v>747000</v>
       </c>
       <c r="Q17" s="1">
-        <v>5658000</v>
+        <v>5929000</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -7010,33 +8742,33 @@
         <v>8</v>
       </c>
       <c r="M18" s="1">
-        <v>490000</v>
+        <v>484000</v>
       </c>
       <c r="N18" s="1">
-        <v>5553000</v>
+        <v>5528000</v>
       </c>
       <c r="O18" s="1">
-        <v>41626000</v>
+        <v>43044000</v>
       </c>
       <c r="P18" s="1">
-        <v>653000</v>
+        <v>691000</v>
       </c>
       <c r="Q18" s="1">
-        <v>5716000</v>
+        <v>5658000</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -7063,33 +8795,33 @@
         <v>8</v>
       </c>
       <c r="M19" s="1">
-        <v>496000</v>
+        <v>490000</v>
       </c>
       <c r="N19" s="1">
-        <v>5798000</v>
+        <v>5553000</v>
       </c>
       <c r="O19" s="1">
-        <v>44438000</v>
+        <v>41626000</v>
       </c>
       <c r="P19" s="1">
-        <v>747000</v>
+        <v>653000</v>
       </c>
       <c r="Q19" s="1">
-        <v>5929000</v>
+        <v>5716000</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -7116,33 +8848,33 @@
         <v>8</v>
       </c>
       <c r="M20" s="1">
-        <v>517000</v>
+        <v>525000</v>
       </c>
       <c r="N20" s="1">
-        <v>5403000</v>
+        <v>6000000</v>
       </c>
       <c r="O20" s="1">
-        <v>40024000</v>
+        <v>40208000</v>
       </c>
       <c r="P20" s="1">
-        <v>729000</v>
+        <v>751000</v>
       </c>
       <c r="Q20" s="1">
-        <v>5547000</v>
+        <v>6176000</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -7169,33 +8901,33 @@
         <v>8</v>
       </c>
       <c r="M21" s="1">
-        <v>546000</v>
+        <v>517000</v>
       </c>
       <c r="N21" s="1">
-        <v>5584000</v>
+        <v>5403000</v>
       </c>
       <c r="O21" s="1">
-        <v>35691000</v>
+        <v>40024000</v>
       </c>
       <c r="P21" s="1">
-        <v>684000</v>
+        <v>729000</v>
       </c>
       <c r="Q21" s="1">
-        <v>5770000</v>
+        <v>5547000</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -7222,33 +8954,33 @@
         <v>8</v>
       </c>
       <c r="M22" s="1">
-        <v>525000</v>
+        <v>546000</v>
       </c>
       <c r="N22" s="1">
-        <v>6000000</v>
+        <v>5584000</v>
       </c>
       <c r="O22" s="1">
-        <v>40208000</v>
+        <v>35691000</v>
       </c>
       <c r="P22" s="1">
-        <v>751000</v>
+        <v>684000</v>
       </c>
       <c r="Q22" s="1">
-        <v>6176000</v>
+        <v>5770000</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -7275,33 +9007,33 @@
         <v>8</v>
       </c>
       <c r="M23" s="1">
-        <v>534000</v>
+        <v>510000</v>
       </c>
       <c r="N23" s="1">
-        <v>5475000</v>
+        <v>5013000</v>
       </c>
       <c r="O23" s="1">
-        <v>43440000</v>
+        <v>43251000</v>
       </c>
       <c r="P23" s="1">
-        <v>779000</v>
+        <v>800000</v>
       </c>
       <c r="Q23" s="1">
-        <v>5727000</v>
+        <v>5172000</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -7328,33 +9060,33 @@
         <v>8</v>
       </c>
       <c r="M24" s="1">
-        <v>508000</v>
+        <v>534000</v>
       </c>
       <c r="N24" s="1">
-        <v>5473000</v>
+        <v>5475000</v>
       </c>
       <c r="O24" s="1">
-        <v>38635000</v>
+        <v>43440000</v>
       </c>
       <c r="P24" s="1">
-        <v>709000</v>
+        <v>779000</v>
       </c>
       <c r="Q24" s="1">
-        <v>5722000</v>
+        <v>5727000</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -7381,19 +9113,19 @@
         <v>8</v>
       </c>
       <c r="M25" s="1">
-        <v>510000</v>
+        <v>508000</v>
       </c>
       <c r="N25" s="1">
-        <v>5013000</v>
+        <v>5473000</v>
       </c>
       <c r="O25" s="1">
-        <v>43251000</v>
+        <v>38635000</v>
       </c>
       <c r="P25" s="1">
-        <v>800000</v>
+        <v>709000</v>
       </c>
       <c r="Q25" s="1">
-        <v>5172000</v>
+        <v>5722000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -7416,967 +9148,1371 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
         <v>71</v>
       </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="str">
         <f>"Threads: "&amp;B2&amp;" "&amp;C2</f>
-        <v>Threads: 1 Simd128</v>
-      </c>
-      <c r="B28" s="1">
+        <v>Threads: 1 No Simd</v>
+      </c>
+      <c r="B28" s="5">
         <f>M2*0.000001</f>
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="C28" s="1">
-        <f xml:space="preserve"> (N2 * 0.000001)+B28</f>
-        <v>5.4450000000000003</v>
-      </c>
-      <c r="D28" s="1">
-        <f xml:space="preserve"> (O2 * 0.000001)+C28</f>
-        <v>158.124</v>
-      </c>
-      <c r="E28" s="1">
-        <f xml:space="preserve"> (P2 * 0.000001)+D28</f>
-        <v>158.79499999999999</v>
-      </c>
-      <c r="F28" s="1">
-        <f xml:space="preserve"> (Q2 * 0.000001)+E28</f>
-        <v>163.85399999999998</v>
-      </c>
-      <c r="G28">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:F28" si="0">N2*0.000001</f>
+        <v>5.2189999999999994</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>157.27099999999999</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2719999999999994</v>
+      </c>
+      <c r="G28" s="5">
+        <f>SUM(B28:F28)</f>
+        <v>168.92699999999996</v>
+      </c>
+      <c r="H28" s="6">
         <v>0</v>
       </c>
-      <c r="H28">
+      <c r="I28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>"Threads: "&amp;B3&amp;" "&amp;C3</f>
-        <v>Threads: 1 Simd256</v>
+        <f t="shared" ref="A29:A53" si="1">"Threads: "&amp;B3&amp;" "&amp;C3</f>
+        <v>Threads: 1 Simd128</v>
       </c>
       <c r="B29" s="1">
-        <f>M3*0.000001</f>
-        <v>0.439</v>
+        <f t="shared" ref="B29:B51" si="2">M3*0.000001</f>
+        <v>0.44500000000000001</v>
       </c>
       <c r="C29" s="1">
-        <f xml:space="preserve"> (N3 * 0.000001)+B29</f>
-        <v>5.5</v>
+        <f t="shared" ref="C29:C51" si="3">N3*0.000001</f>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
-        <f xml:space="preserve"> (O3 * 0.000001)+C29</f>
-        <v>147.536</v>
+        <f t="shared" ref="D29:D51" si="4">O3*0.000001</f>
+        <v>152.679</v>
       </c>
       <c r="E29" s="1">
-        <f xml:space="preserve"> (P3 * 0.000001)+D29</f>
-        <v>148.20099999999999</v>
+        <f t="shared" ref="E29:E51" si="5">P3*0.000001</f>
+        <v>0.67099999999999993</v>
       </c>
       <c r="F29" s="1">
-        <f xml:space="preserve"> (Q3 * 0.000001)+E29</f>
-        <v>153.33699999999999</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+        <f t="shared" ref="F29:F51" si="6">Q3*0.000001</f>
+        <v>5.0590000000000002</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G51" si="7">SUM(B29:F29)</f>
+        <v>163.85399999999998</v>
+      </c>
+      <c r="H29" s="2">
+        <f>(($G$28-G29)/$G$28)</f>
+        <v>3.0030723330195765E-2</v>
+      </c>
+      <c r="I29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>"Threads: "&amp;B4&amp;" "&amp;C4</f>
-        <v>Threads: 1 No Simd</v>
+        <f t="shared" si="1"/>
+        <v>Threads: 1 Simd256</v>
       </c>
       <c r="B30" s="1">
-        <f>M4*0.000001</f>
-        <v>0.47699999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.439</v>
       </c>
       <c r="C30" s="1">
-        <f xml:space="preserve"> (N4 * 0.000001)+B30</f>
-        <v>5.6959999999999997</v>
+        <f t="shared" si="3"/>
+        <v>5.0609999999999999</v>
       </c>
       <c r="D30" s="1">
-        <f xml:space="preserve"> (O4 * 0.000001)+C30</f>
-        <v>162.96699999999998</v>
+        <f t="shared" si="4"/>
+        <v>142.036</v>
       </c>
       <c r="E30" s="1">
-        <f xml:space="preserve"> (P4 * 0.000001)+D30</f>
-        <v>163.65499999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.66499999999999992</v>
       </c>
       <c r="F30" s="1">
-        <f xml:space="preserve"> (Q4 * 0.000001)+E30</f>
-        <v>168.92699999999996</v>
-      </c>
-      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="7"/>
+        <v>153.33699999999999</v>
+      </c>
+      <c r="H30" s="2">
+        <f>(($G$28-G30)/$G$28)</f>
+        <v>9.2288384923665118E-2</v>
+      </c>
+      <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>"Threads: "&amp;B5&amp;" "&amp;C5</f>
-        <v>Threads: 2 Simd128</v>
-      </c>
-      <c r="B31" s="1">
-        <f>M5*0.000001</f>
-        <v>0.45599999999999996</v>
-      </c>
-      <c r="C31" s="1">
-        <f xml:space="preserve"> (N5 * 0.000001)+B31</f>
-        <v>5.8170000000000002</v>
-      </c>
-      <c r="D31" s="1">
-        <f xml:space="preserve"> (O5 * 0.000001)+C31</f>
-        <v>91.170999999999992</v>
-      </c>
-      <c r="E31" s="1">
-        <f xml:space="preserve"> (P5 * 0.000001)+D31</f>
-        <v>91.828999999999994</v>
-      </c>
-      <c r="F31" s="1">
-        <f xml:space="preserve"> (Q5 * 0.000001)+E31</f>
-        <v>97.318999999999988</v>
-      </c>
-      <c r="G31" s="1">
-        <f>($F$28-F31)/$F$28*100</f>
-        <v>40.606271436766875</v>
-      </c>
-      <c r="H31" s="1">
-        <f>($F$30-F31)/$F$30*100</f>
-        <v>42.389908066798078</v>
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Threads: 2 No Simd</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="3"/>
+        <v>5.4829999999999997</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="4"/>
+        <v>78.756</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="5"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="6"/>
+        <v>5.5190000000000001</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="7"/>
+        <v>90.862000000000009</v>
+      </c>
+      <c r="H31" s="6">
+        <f>(($G$28-G31)/$G$28)</f>
+        <v>0.46212269205041212</v>
+      </c>
+      <c r="I31" s="6">
+        <f>(($G$28-G31)/$G$28)</f>
+        <v>0.46212269205041212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>"Threads: "&amp;B6&amp;" "&amp;C6</f>
+        <f t="shared" si="1"/>
+        <v>Threads: 2 Simd128</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="4"/>
+        <v>85.353999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="5"/>
+        <v>0.65799999999999992</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="6"/>
+        <v>5.4899999999999993</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="7"/>
+        <v>97.318999999999988</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" ref="H32:H51" si="8">(($G$28-G32)/$G$28)</f>
+        <v>0.42389908066798077</v>
+      </c>
+      <c r="I32" s="2">
+        <f>(($G$29-G32)/$G$29)</f>
+        <v>0.40606271436766878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 2 Simd256</v>
       </c>
-      <c r="B32" s="1">
-        <f>M6*0.000001</f>
+      <c r="B33" s="1">
+        <f t="shared" si="2"/>
         <v>0.45399999999999996</v>
       </c>
-      <c r="C32" s="1">
-        <f xml:space="preserve"> (N6 * 0.000001)+B32</f>
-        <v>5.2719999999999994</v>
-      </c>
-      <c r="D32" s="1">
-        <f xml:space="preserve"> (O6 * 0.000001)+C32</f>
-        <v>78.126999999999995</v>
-      </c>
-      <c r="E32" s="1">
-        <f xml:space="preserve"> (P6 * 0.000001)+D32</f>
-        <v>78.759999999999991</v>
-      </c>
-      <c r="F32" s="1">
-        <f xml:space="preserve"> (Q6 * 0.000001)+E32</f>
+      <c r="C33" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8179999999999996</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="4"/>
+        <v>72.85499999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8339999999999996</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="7"/>
         <v>83.593999999999994</v>
       </c>
-      <c r="G32" s="1">
-        <f>($F$29-F32)/$F$29*100</f>
-        <v>45.483477569014653</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" ref="H32:H51" si="0">($F$30-F32)/$F$30*100</f>
-        <v>50.514719375825059</v>
+      <c r="H33" s="2">
+        <f t="shared" si="8"/>
+        <v>0.50514719375825057</v>
+      </c>
+      <c r="I33" s="2">
+        <f>(($G$30-G33)/$G$30)</f>
+        <v>0.45483477569014652</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>"Threads: "&amp;B7&amp;" "&amp;C7</f>
-        <v>Threads: 2 No Simd</v>
-      </c>
-      <c r="B33" s="1">
-        <f>M7*0.000001</f>
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="C33" s="1">
-        <f xml:space="preserve"> (N7 * 0.000001)+B33</f>
-        <v>5.907</v>
-      </c>
-      <c r="D33" s="1">
-        <f xml:space="preserve"> (O7 * 0.000001)+C33</f>
-        <v>84.662999999999997</v>
-      </c>
-      <c r="E33" s="1">
-        <f xml:space="preserve"> (P7 * 0.000001)+D33</f>
-        <v>85.343000000000004</v>
-      </c>
-      <c r="F33" s="1">
-        <f xml:space="preserve"> (Q7 * 0.000001)+E33</f>
-        <v>90.862000000000009</v>
-      </c>
-      <c r="G33" s="1">
-        <f>($F$30-F33)/$F$30*100</f>
-        <v>46.21226920504121</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="0"/>
-        <v>46.21226920504121</v>
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Threads: 3 No Simd</v>
+      </c>
+      <c r="B34" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="3"/>
+        <v>5.3709999999999996</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="4"/>
+        <v>63.485999999999997</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="5"/>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="6"/>
+        <v>5.46</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="7"/>
+        <v>75.436999999999983</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="8"/>
+        <v>0.55343432370195411</v>
+      </c>
+      <c r="I34" s="6">
+        <f>(($G$28-G34)/$G$28)</f>
+        <v>0.55343432370195411</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>"Threads: "&amp;B8&amp;" "&amp;C8</f>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 3 Simd128</v>
       </c>
-      <c r="B34" s="1">
-        <f>M8*0.000001</f>
+      <c r="B35" s="1">
+        <f t="shared" si="2"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="C34" s="1">
-        <f xml:space="preserve"> (N8 * 0.000001)+B34</f>
-        <v>5.9770000000000003</v>
-      </c>
-      <c r="D34" s="1">
-        <f xml:space="preserve"> (O8 * 0.000001)+C34</f>
-        <v>65.98</v>
-      </c>
-      <c r="E34" s="1">
-        <f xml:space="preserve"> (P8 * 0.000001)+D34</f>
-        <v>66.64</v>
-      </c>
-      <c r="F34" s="1">
-        <f xml:space="preserve"> (Q8 * 0.000001)+E34</f>
+      <c r="C35" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5209999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="4"/>
+        <v>60.003</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="5"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="6"/>
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="7"/>
         <v>72.275000000000006</v>
       </c>
-      <c r="G34" s="1">
-        <f>($F$28-F34)/$F$28*100</f>
-        <v>55.890609933233236</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>57.215246822591993</v>
+      <c r="H35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.57215246822591992</v>
+      </c>
+      <c r="I35" s="2">
+        <f>(($G$29-G35)/$G$29)</f>
+        <v>0.55890609933233237</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>"Threads: "&amp;B9&amp;" "&amp;C9</f>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 3 Simd256</v>
       </c>
-      <c r="B35" s="1">
-        <f>M9*0.000001</f>
+      <c r="B36" s="1">
+        <f t="shared" si="2"/>
         <v>0.45699999999999996</v>
       </c>
-      <c r="C35" s="1">
-        <f xml:space="preserve"> (N9 * 0.000001)+B35</f>
-        <v>6.1999999999999993</v>
-      </c>
-      <c r="D35" s="1">
-        <f xml:space="preserve"> (O9 * 0.000001)+C35</f>
-        <v>58.713999999999999</v>
-      </c>
-      <c r="E35" s="1">
-        <f xml:space="preserve"> (P9 * 0.000001)+D35</f>
-        <v>59.292000000000002</v>
-      </c>
-      <c r="F35" s="1">
-        <f xml:space="preserve"> (Q9 * 0.000001)+E35</f>
+      <c r="C36" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7429999999999994</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="4"/>
+        <v>52.513999999999996</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="5"/>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="6"/>
+        <v>5.85</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="7"/>
         <v>65.141999999999996</v>
       </c>
-      <c r="G35" s="1">
-        <f>($F$29-F35)/$F$29*100</f>
-        <v>57.517102851888325</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="0"/>
-        <v>61.437780816565734</v>
+      <c r="H36" s="2">
+        <f t="shared" si="8"/>
+        <v>0.61437780816565735</v>
+      </c>
+      <c r="I36" s="2">
+        <f>(($G$30-G36)/$G$30)</f>
+        <v>0.57517102851888324</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>"Threads: "&amp;B10&amp;" "&amp;C10</f>
-        <v>Threads: 3 No Simd</v>
-      </c>
-      <c r="B36" s="1">
-        <f>M10*0.000001</f>
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="C36" s="1">
-        <f xml:space="preserve"> (N10 * 0.000001)+B36</f>
-        <v>5.8159999999999998</v>
-      </c>
-      <c r="D36" s="1">
-        <f xml:space="preserve"> (O10 * 0.000001)+C36</f>
-        <v>69.301999999999992</v>
-      </c>
-      <c r="E36" s="1">
-        <f xml:space="preserve"> (P10 * 0.000001)+D36</f>
-        <v>69.97699999999999</v>
-      </c>
-      <c r="F36" s="1">
-        <f xml:space="preserve"> (Q10 * 0.000001)+E36</f>
-        <v>75.436999999999983</v>
-      </c>
-      <c r="G36" s="1">
-        <f>($F$30-F36)/$F$30*100</f>
-        <v>55.343432370195409</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="0"/>
-        <v>55.343432370195409</v>
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Threads: 4 No Simd</v>
+      </c>
+      <c r="B37" s="5">
+        <f t="shared" si="2"/>
+        <v>0.442</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="3"/>
+        <v>5.2789999999999999</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="4"/>
+        <v>42.665999999999997</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="5"/>
+        <v>0.623</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="6"/>
+        <v>5.327</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="7"/>
+        <v>54.336999999999996</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="8"/>
+        <v>0.67834034819774225</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" ref="I37:I51" si="9">(($G$28-G37)/$G$28)</f>
+        <v>0.67834034819774225</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>"Threads: "&amp;B11&amp;" "&amp;C11</f>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 4 Simd128</v>
       </c>
-      <c r="B37" s="1">
-        <f>M11*0.000001</f>
+      <c r="B38" s="1">
+        <f t="shared" si="2"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="C37" s="1">
-        <f xml:space="preserve"> (N11 * 0.000001)+B37</f>
-        <v>6.1419999999999995</v>
-      </c>
-      <c r="D37" s="1">
-        <f xml:space="preserve"> (O11 * 0.000001)+C37</f>
-        <v>47.652000000000001</v>
-      </c>
-      <c r="E37" s="1">
-        <f xml:space="preserve"> (P11 * 0.000001)+D37</f>
-        <v>48.192999999999998</v>
-      </c>
-      <c r="F37" s="1">
-        <f xml:space="preserve"> (Q11 * 0.000001)+E37</f>
+      <c r="C38" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7169999999999996</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="4"/>
+        <v>41.51</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54099999999999993</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7809999999999997</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="7"/>
         <v>53.973999999999997</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" ref="G37" si="1">($F$28-F37)/$F$28*100</f>
-        <v>67.059699488569095</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="0"/>
-        <v>68.048920539641372</v>
+      <c r="H38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.68048920539641378</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" ref="I38:I51" si="10">(($G$29-G38)/$G$29)</f>
+        <v>0.67059699488569091</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>"Threads: "&amp;B12&amp;" "&amp;C12</f>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 4 Simd256</v>
       </c>
-      <c r="B38" s="1">
-        <f>M12*0.000001</f>
+      <c r="B39" s="1">
+        <f t="shared" si="2"/>
         <v>0.48099999999999998</v>
       </c>
-      <c r="C38" s="1">
-        <f xml:space="preserve"> (N12 * 0.000001)+B38</f>
-        <v>6.2829999999999995</v>
-      </c>
-      <c r="D38" s="1">
-        <f xml:space="preserve"> (O12 * 0.000001)+C38</f>
-        <v>45.896000000000001</v>
-      </c>
-      <c r="E38" s="1">
-        <f xml:space="preserve"> (P12 * 0.000001)+D38</f>
-        <v>46.445999999999998</v>
-      </c>
-      <c r="F38" s="1">
-        <f xml:space="preserve"> (Q12 * 0.000001)+E38</f>
+      <c r="C39" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8019999999999996</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="4"/>
+        <v>39.613</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="6"/>
+        <v>5.9129999999999994</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="7"/>
         <v>52.358999999999995</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" ref="G38" si="2">($F$29-F38)/$F$29*100</f>
-        <v>65.853642630284924</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="0"/>
-        <v>69.004954802962231</v>
+      <c r="H39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.69004954802962226</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" ref="I39:I51" si="11">(($G$30-G39)/$G$30)</f>
+        <v>0.65853642630284925</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>"Threads: "&amp;B13&amp;" "&amp;C13</f>
-        <v>Threads: 4 No Simd</v>
-      </c>
-      <c r="B39" s="1">
-        <f>M13*0.000001</f>
-        <v>0.442</v>
-      </c>
-      <c r="C39" s="1">
-        <f xml:space="preserve"> (N13 * 0.000001)+B39</f>
-        <v>5.7210000000000001</v>
-      </c>
-      <c r="D39" s="1">
-        <f xml:space="preserve"> (O13 * 0.000001)+C39</f>
-        <v>48.387</v>
-      </c>
-      <c r="E39" s="1">
-        <f xml:space="preserve"> (P13 * 0.000001)+D39</f>
-        <v>49.01</v>
-      </c>
-      <c r="F39" s="1">
-        <f xml:space="preserve"> (Q13 * 0.000001)+E39</f>
-        <v>54.336999999999996</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" ref="G39" si="3">($F$30-F39)/$F$30*100</f>
-        <v>67.834034819774232</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="0"/>
-        <v>67.834034819774232</v>
+    <row r="40" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Threads: 5 No Simd</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="3"/>
+        <v>5.4139999999999997</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="4"/>
+        <v>50.891999999999996</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="5"/>
+        <v>0.67099999999999993</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="6"/>
+        <v>5.4969999999999999</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="7"/>
+        <v>62.929999999999993</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="8"/>
+        <v>0.62747222172891248</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" ref="I40:I51" si="12">(($G$28-G40)/$G$28)</f>
+        <v>0.62747222172891248</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>"Threads: "&amp;B14&amp;" "&amp;C14</f>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 5 Simd128</v>
       </c>
-      <c r="B40" s="1">
-        <f>M14*0.000001</f>
+      <c r="B41" s="1">
+        <f t="shared" si="2"/>
         <v>0.45399999999999996</v>
       </c>
-      <c r="C40" s="1">
-        <f xml:space="preserve"> (N14 * 0.000001)+B40</f>
-        <v>5.6569999999999991</v>
-      </c>
-      <c r="D40" s="1">
-        <f xml:space="preserve"> (O14 * 0.000001)+C40</f>
-        <v>55.148999999999994</v>
-      </c>
-      <c r="E40" s="1">
-        <f xml:space="preserve"> (P14 * 0.000001)+D40</f>
-        <v>55.813999999999993</v>
-      </c>
-      <c r="F40" s="1">
-        <f xml:space="preserve"> (Q14 * 0.000001)+E40</f>
+      <c r="C41" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2029999999999994</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="4"/>
+        <v>49.491999999999997</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="5"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="6"/>
+        <v>5.2379999999999995</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="7"/>
         <v>61.051999999999992</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" ref="G40" si="4">($F$28-F40)/$F$28*100</f>
-        <v>62.740000244119763</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="0"/>
-        <v>63.858944988071762</v>
+      <c r="H41" s="2">
+        <f t="shared" si="8"/>
+        <v>0.63858944988071764</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" ref="I41:I51" si="13">(($G$29-G41)/$G$29)</f>
+        <v>0.62740000244119765</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>"Threads: "&amp;B15&amp;" "&amp;C15</f>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 5 Simd256</v>
       </c>
-      <c r="B41" s="1">
-        <f>M15*0.000001</f>
+      <c r="B42" s="1">
+        <f t="shared" si="2"/>
         <v>0.45499999999999996</v>
       </c>
-      <c r="C41" s="1">
-        <f xml:space="preserve"> (N15 * 0.000001)+B41</f>
-        <v>5.5659999999999998</v>
-      </c>
-      <c r="D41" s="1">
-        <f xml:space="preserve"> (O15 * 0.000001)+C41</f>
-        <v>52.021999999999998</v>
-      </c>
-      <c r="E41" s="1">
-        <f xml:space="preserve"> (P15 * 0.000001)+D41</f>
-        <v>52.620999999999995</v>
-      </c>
-      <c r="F41" s="1">
-        <f xml:space="preserve"> (Q15 * 0.000001)+E41</f>
+      <c r="C42" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1109999999999998</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="4"/>
+        <v>46.455999999999996</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="5"/>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="6"/>
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="7"/>
         <v>57.859999999999992</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" ref="G41" si="5">($F$29-F41)/$F$29*100</f>
-        <v>62.266119723224008</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="0"/>
-        <v>65.748518590870617</v>
+      <c r="H42" s="2">
+        <f t="shared" si="8"/>
+        <v>0.65748518590870619</v>
+      </c>
+      <c r="I42" s="2">
+        <f>(($G$30-G42)/$G$30)</f>
+        <v>0.62266119723224012</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>"Threads: "&amp;B16&amp;" "&amp;C16</f>
-        <v>Threads: 5 No Simd</v>
-      </c>
-      <c r="B42" s="1">
-        <f>M16*0.000001</f>
-        <v>0.45599999999999996</v>
-      </c>
-      <c r="C42" s="1">
-        <f xml:space="preserve"> (N16 * 0.000001)+B42</f>
-        <v>5.8699999999999992</v>
-      </c>
-      <c r="D42" s="1">
-        <f xml:space="preserve"> (O16 * 0.000001)+C42</f>
-        <v>56.761999999999993</v>
-      </c>
-      <c r="E42" s="1">
-        <f xml:space="preserve"> (P16 * 0.000001)+D42</f>
-        <v>57.432999999999993</v>
-      </c>
-      <c r="F42" s="1">
-        <f xml:space="preserve"> (Q16 * 0.000001)+E42</f>
-        <v>62.929999999999993</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" ref="G42" si="6">($F$30-F42)/$F$30*100</f>
-        <v>62.747222172891249</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="0"/>
-        <v>62.747222172891249</v>
+    <row r="43" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Threads: 6 No Simd</v>
+      </c>
+      <c r="B43" s="5">
+        <f t="shared" si="2"/>
+        <v>0.496</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="3"/>
+        <v>5.798</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="4"/>
+        <v>44.437999999999995</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.747</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="6"/>
+        <v>5.9289999999999994</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="7"/>
+        <v>57.408000000000001</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="8"/>
+        <v>0.66016089790264421</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" ref="I43:I51" si="14">(($G$28-G43)/$G$28)</f>
+        <v>0.66016089790264421</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>"Threads: "&amp;B17&amp;" "&amp;C17</f>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 6 Simd128</v>
       </c>
-      <c r="B43" s="1">
-        <f>M17*0.000001</f>
+      <c r="B44" s="1">
+        <f t="shared" si="2"/>
         <v>0.48399999999999999</v>
       </c>
-      <c r="C43" s="1">
-        <f xml:space="preserve"> (N17 * 0.000001)+B43</f>
-        <v>6.0119999999999996</v>
-      </c>
-      <c r="D43" s="1">
-        <f xml:space="preserve"> (O17 * 0.000001)+C43</f>
-        <v>49.055999999999997</v>
-      </c>
-      <c r="E43" s="1">
-        <f xml:space="preserve"> (P17 * 0.000001)+D43</f>
-        <v>49.747</v>
-      </c>
-      <c r="F43" s="1">
-        <f xml:space="preserve"> (Q17 * 0.000001)+E43</f>
+      <c r="C44" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="4"/>
+        <v>43.043999999999997</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="5"/>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="6"/>
+        <v>5.6579999999999995</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="7"/>
         <v>55.405000000000001</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" ref="G43" si="7">($F$28-F43)/$F$28*100</f>
-        <v>66.186361028720682</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="0"/>
-        <v>67.201809065454299</v>
+      <c r="H44" s="2">
+        <f t="shared" si="8"/>
+        <v>0.67201809065454299</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" ref="I44:I51" si="15">(($G$29-G44)/$G$29)</f>
+        <v>0.66186361028720686</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>"Threads: "&amp;B18&amp;" "&amp;C18</f>
-        <v>Threads: 6 Simd256</v>
-      </c>
-      <c r="B44" s="1">
-        <f>M18*0.000001</f>
-        <v>0.49</v>
-      </c>
-      <c r="C44" s="1">
-        <f xml:space="preserve"> (N18 * 0.000001)+B44</f>
-        <v>6.0430000000000001</v>
-      </c>
-      <c r="D44" s="1">
-        <f xml:space="preserve"> (O18 * 0.000001)+C44</f>
-        <v>47.668999999999997</v>
-      </c>
-      <c r="E44" s="1">
-        <f xml:space="preserve"> (P18 * 0.000001)+D44</f>
-        <v>48.321999999999996</v>
-      </c>
-      <c r="F44" s="1">
-        <f xml:space="preserve"> (Q18 * 0.000001)+E44</f>
-        <v>54.037999999999997</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" ref="G44" si="8">($F$29-F44)/$F$29*100</f>
-        <v>64.758668814441393</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="0"/>
-        <v>68.011034352116596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>"Threads: "&amp;B19&amp;" "&amp;C19</f>
-        <v>Threads: 6 No Simd</v>
+        <v>Threads: 6 Simd256</v>
       </c>
       <c r="B45" s="1">
-        <f>M19*0.000001</f>
-        <v>0.496</v>
+        <f t="shared" si="2"/>
+        <v>0.49</v>
       </c>
       <c r="C45" s="1">
-        <f xml:space="preserve"> (N19 * 0.000001)+B45</f>
-        <v>6.2940000000000005</v>
+        <f t="shared" si="3"/>
+        <v>5.5529999999999999</v>
       </c>
       <c r="D45" s="1">
-        <f xml:space="preserve"> (O19 * 0.000001)+C45</f>
-        <v>50.731999999999999</v>
+        <f t="shared" si="4"/>
+        <v>41.625999999999998</v>
       </c>
       <c r="E45" s="1">
-        <f xml:space="preserve"> (P19 * 0.000001)+D45</f>
-        <v>51.478999999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.65300000000000002</v>
       </c>
       <c r="F45" s="1">
-        <f xml:space="preserve"> (Q19 * 0.000001)+E45</f>
-        <v>57.408000000000001</v>
+        <f t="shared" si="6"/>
+        <v>5.7159999999999993</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" ref="G45" si="9">($F$30-F45)/$F$30*100</f>
-        <v>66.016089790264417</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="0"/>
-        <v>66.016089790264417</v>
+        <f t="shared" si="7"/>
+        <v>54.037999999999997</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="8"/>
+        <v>0.68011034352116595</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" ref="I45:I51" si="16">(($G$30-G45)/$G$30)</f>
+        <v>0.64758668814441389</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>"Threads: "&amp;B20&amp;" "&amp;C20</f>
+    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Threads: 7 No Simd</v>
+      </c>
+      <c r="B46" s="5">
+        <f t="shared" si="2"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="4"/>
+        <v>40.207999999999998</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="5"/>
+        <v>0.751</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="6"/>
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="7"/>
+        <v>53.66</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="8"/>
+        <v>0.68234799647184874</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" ref="I46:I51" si="17">(($G$28-G46)/$G$28)</f>
+        <v>0.68234799647184874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 7 Simd128</v>
       </c>
-      <c r="B46" s="1">
-        <f>M20*0.000001</f>
+      <c r="B47" s="1">
+        <f t="shared" si="2"/>
         <v>0.51700000000000002</v>
       </c>
-      <c r="C46" s="1">
-        <f xml:space="preserve"> (N20 * 0.000001)+B46</f>
-        <v>5.92</v>
-      </c>
-      <c r="D46" s="1">
-        <f xml:space="preserve"> (O20 * 0.000001)+C46</f>
-        <v>45.944000000000003</v>
-      </c>
-      <c r="E46" s="1">
-        <f xml:space="preserve"> (P20 * 0.000001)+D46</f>
-        <v>46.673000000000002</v>
-      </c>
-      <c r="F46" s="1">
-        <f xml:space="preserve"> (Q20 * 0.000001)+E46</f>
+      <c r="C47" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>40.024000000000001</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="6"/>
+        <v>5.5469999999999997</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="7"/>
         <v>52.22</v>
       </c>
-      <c r="G46" s="1">
-        <f t="shared" ref="G46" si="10">($F$28-F46)/$F$28*100</f>
-        <v>68.130164658781595</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="0"/>
-        <v>69.087238866492612</v>
+      <c r="H47" s="2">
+        <f t="shared" si="8"/>
+        <v>0.69087238866492617</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" ref="I47:I51" si="18">(($G$29-G47)/$G$29)</f>
+        <v>0.681301646587816</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>"Threads: "&amp;B21&amp;" "&amp;C21</f>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 7 Simd256</v>
       </c>
-      <c r="B47" s="1">
-        <f>M21*0.000001</f>
+      <c r="B48" s="1">
+        <f t="shared" si="2"/>
         <v>0.54599999999999993</v>
       </c>
-      <c r="C47" s="1">
-        <f xml:space="preserve"> (N21 * 0.000001)+B47</f>
-        <v>6.13</v>
-      </c>
-      <c r="D47" s="1">
-        <f xml:space="preserve"> (O21 * 0.000001)+C47</f>
-        <v>41.820999999999998</v>
-      </c>
-      <c r="E47" s="1">
-        <f xml:space="preserve"> (P21 * 0.000001)+D47</f>
-        <v>42.504999999999995</v>
-      </c>
-      <c r="F47" s="1">
-        <f xml:space="preserve"> (Q21 * 0.000001)+E47</f>
+      <c r="C48" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5839999999999996</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="4"/>
+        <v>35.690999999999995</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="5"/>
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="6"/>
+        <v>5.77</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="7"/>
         <v>48.274999999999991</v>
       </c>
-      <c r="G47" s="1">
-        <f t="shared" ref="G47" si="11">($F$29-F47)/$F$29*100</f>
-        <v>68.517057200806079</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="0"/>
-        <v>71.422567144387813</v>
+      <c r="H48" s="2">
+        <f t="shared" si="8"/>
+        <v>0.71422567144387816</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" ref="I48:I51" si="19">(($G$30-G48)/$G$30)</f>
+        <v>0.68517057200806075</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>"Threads: "&amp;B22&amp;" "&amp;C22</f>
-        <v>Threads: 7 No Simd</v>
-      </c>
-      <c r="B48" s="1">
-        <f>M22*0.000001</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="C48" s="1">
-        <f xml:space="preserve"> (N22 * 0.000001)+B48</f>
-        <v>6.5250000000000004</v>
-      </c>
-      <c r="D48" s="1">
-        <f xml:space="preserve"> (O22 * 0.000001)+C48</f>
-        <v>46.732999999999997</v>
-      </c>
-      <c r="E48" s="1">
-        <f xml:space="preserve"> (P22 * 0.000001)+D48</f>
-        <v>47.483999999999995</v>
-      </c>
-      <c r="F48" s="1">
-        <f xml:space="preserve"> (Q22 * 0.000001)+E48</f>
-        <v>53.66</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" ref="G48" si="12">($F$30-F48)/$F$30*100</f>
-        <v>68.234799647184872</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="0"/>
-        <v>68.234799647184872</v>
+    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
+        <f>"Threads: "&amp;B23&amp;" "&amp;C23</f>
+        <v>Threads: 8 No Simd</v>
+      </c>
+      <c r="B49" s="5">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0129999999999999</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="4"/>
+        <v>43.250999999999998</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="6"/>
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="7"/>
+        <v>54.745999999999995</v>
+      </c>
+      <c r="H49" s="6">
+        <f t="shared" si="8"/>
+        <v>0.67591918402623619</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" ref="I49:I51" si="20">(($G$28-G49)/$G$28)</f>
+        <v>0.67591918402623619</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>"Threads: "&amp;B23&amp;" "&amp;C23</f>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 8 Simd128</v>
       </c>
-      <c r="B49" s="1">
-        <f>M23*0.000001</f>
+      <c r="B50" s="1">
+        <f t="shared" si="2"/>
         <v>0.53400000000000003</v>
       </c>
-      <c r="C49" s="1">
-        <f xml:space="preserve"> (N23 * 0.000001)+B49</f>
-        <v>6.0089999999999995</v>
-      </c>
-      <c r="D49" s="1">
-        <f xml:space="preserve"> (O23 * 0.000001)+C49</f>
-        <v>49.448999999999998</v>
-      </c>
-      <c r="E49" s="1">
-        <f xml:space="preserve"> (P23 * 0.000001)+D49</f>
-        <v>50.227999999999994</v>
-      </c>
-      <c r="F49" s="1">
-        <f xml:space="preserve"> (Q23 * 0.000001)+E49</f>
+      <c r="C50" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="4"/>
+        <v>43.44</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="5"/>
+        <v>0.77899999999999991</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7269999999999994</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="7"/>
         <v>55.954999999999991</v>
       </c>
-      <c r="G49" s="1">
-        <f>($F$28-F49)/$F$28*100</f>
-        <v>65.850696351630106</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="0"/>
-        <v>66.87622464141316</v>
+      <c r="H50" s="2">
+        <f t="shared" si="8"/>
+        <v>0.66876224641413162</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" ref="I50:I51" si="21">(($G$29-G50)/$G$29)</f>
+        <v>0.65850696351630111</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>"Threads: "&amp;B24&amp;" "&amp;C24</f>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
         <v>Threads: 8 Simd256</v>
       </c>
-      <c r="B50" s="1">
-        <f>M24*0.000001</f>
+      <c r="B51" s="1">
+        <f t="shared" si="2"/>
         <v>0.50800000000000001</v>
       </c>
-      <c r="C50" s="1">
-        <f xml:space="preserve"> (N24 * 0.000001)+B50</f>
-        <v>5.9809999999999999</v>
-      </c>
-      <c r="D50" s="1">
-        <f xml:space="preserve"> (O24 * 0.000001)+C50</f>
-        <v>44.616</v>
-      </c>
-      <c r="E50" s="1">
-        <f xml:space="preserve"> (P24 * 0.000001)+D50</f>
-        <v>45.325000000000003</v>
-      </c>
-      <c r="F50" s="1">
-        <f xml:space="preserve"> (Q24 * 0.000001)+E50</f>
+      <c r="C51" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4729999999999999</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="4"/>
+        <v>38.634999999999998</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="5"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7219999999999995</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="7"/>
         <v>51.047000000000004</v>
       </c>
-      <c r="G50" s="1">
-        <f t="shared" ref="G50" si="13">($F$29-F50)/$F$29*100</f>
-        <v>66.709274343439617</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="0"/>
-        <v>69.781621647220391</v>
+      <c r="H51" s="2">
+        <f t="shared" si="8"/>
+        <v>0.69781621647220393</v>
+      </c>
+      <c r="I51" s="2">
+        <f>(($G$30-G51)/$G$30)</f>
+        <v>0.66709274343439617</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>"Threads: "&amp;B25&amp;" "&amp;C25</f>
-        <v>Threads: 8 No Simd</v>
-      </c>
-      <c r="B51" s="1">
-        <f>M25*0.000001</f>
-        <v>0.51</v>
-      </c>
-      <c r="C51" s="1">
-        <f xml:space="preserve"> (N25 * 0.000001)+B51</f>
-        <v>5.5229999999999997</v>
-      </c>
-      <c r="D51" s="1">
-        <f xml:space="preserve"> (O25 * 0.000001)+C51</f>
-        <v>48.774000000000001</v>
-      </c>
-      <c r="E51" s="1">
-        <f xml:space="preserve"> (P25 * 0.000001)+D51</f>
-        <v>49.573999999999998</v>
-      </c>
-      <c r="F51" s="1">
-        <f xml:space="preserve"> (Q25 * 0.000001)+E51</f>
-        <v>54.745999999999995</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" ref="G51" si="14">($F$30-F51)/$F$30*100</f>
-        <v>67.591918402623619</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="0"/>
-        <v>67.591918402623619</v>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f t="shared" ref="A53:A76" si="15">A28</f>
-        <v>Threads: 1 Simd128</v>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="3">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <f>H31</f>
+        <v>0.46212269205041212</v>
+      </c>
+      <c r="D54" s="3">
+        <f>H34</f>
+        <v>0.55343432370195411</v>
+      </c>
+      <c r="E54" s="3">
+        <f>H37</f>
+        <v>0.67834034819774225</v>
+      </c>
+      <c r="F54" s="3">
+        <f>H40</f>
+        <v>0.62747222172891248</v>
+      </c>
+      <c r="G54" s="3">
+        <f>H43</f>
+        <v>0.66016089790264421</v>
+      </c>
+      <c r="H54" s="3">
+        <f>H46</f>
+        <v>0.68234799647184874</v>
+      </c>
+      <c r="I54" s="3">
+        <f>H49</f>
+        <v>0.67591918402623619</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 1 Simd256</v>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="3">
+        <f>H29</f>
+        <v>3.0030723330195765E-2</v>
+      </c>
+      <c r="C55" s="3">
+        <f>H32</f>
+        <v>0.42389908066798077</v>
+      </c>
+      <c r="D55" s="3">
+        <f>H35</f>
+        <v>0.57215246822591992</v>
+      </c>
+      <c r="E55" s="3">
+        <f>H38</f>
+        <v>0.68048920539641378</v>
+      </c>
+      <c r="F55" s="3">
+        <f>H41</f>
+        <v>0.63858944988071764</v>
+      </c>
+      <c r="G55" s="3">
+        <f>H44</f>
+        <v>0.67201809065454299</v>
+      </c>
+      <c r="H55" s="3">
+        <f>H47</f>
+        <v>0.69087238866492617</v>
+      </c>
+      <c r="I55" s="3">
+        <f>H50</f>
+        <v>0.66876224641413162</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 1 No Simd</v>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="3">
+        <f>H30</f>
+        <v>9.2288384923665118E-2</v>
+      </c>
+      <c r="C56" s="3">
+        <f>H33</f>
+        <v>0.50514719375825057</v>
+      </c>
+      <c r="D56" s="3">
+        <f>H36</f>
+        <v>0.61437780816565735</v>
+      </c>
+      <c r="E56" s="3">
+        <f>H39</f>
+        <v>0.69004954802962226</v>
+      </c>
+      <c r="F56" s="3">
+        <f>H42</f>
+        <v>0.65748518590870619</v>
+      </c>
+      <c r="G56" s="3">
+        <f>H45</f>
+        <v>0.68011034352116595</v>
+      </c>
+      <c r="H56" s="3">
+        <f>H48</f>
+        <v>0.71422567144387816</v>
+      </c>
+      <c r="I56" s="3">
+        <f>H51</f>
+        <v>0.69781621647220393</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 2 Simd128</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 2 Simd256</v>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="3">
+        <f>I28</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <f>I31</f>
+        <v>0.46212269205041212</v>
+      </c>
+      <c r="D59" s="3">
+        <f>I34</f>
+        <v>0.55343432370195411</v>
+      </c>
+      <c r="E59" s="3">
+        <f>I37</f>
+        <v>0.67834034819774225</v>
+      </c>
+      <c r="F59" s="3">
+        <f>I40</f>
+        <v>0.62747222172891248</v>
+      </c>
+      <c r="G59" s="3">
+        <f>I43</f>
+        <v>0.66016089790264421</v>
+      </c>
+      <c r="H59" s="3">
+        <f>I46</f>
+        <v>0.68234799647184874</v>
+      </c>
+      <c r="I59" s="3">
+        <f>I49</f>
+        <v>0.67591918402623619</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 2 No Simd</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="3">
+        <f>I29</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <f>I32</f>
+        <v>0.40606271436766878</v>
+      </c>
+      <c r="D60" s="3">
+        <f>I35</f>
+        <v>0.55890609933233237</v>
+      </c>
+      <c r="E60" s="3">
+        <f>I38</f>
+        <v>0.67059699488569091</v>
+      </c>
+      <c r="F60" s="3">
+        <f>I41</f>
+        <v>0.62740000244119765</v>
+      </c>
+      <c r="G60" s="3">
+        <f>I44</f>
+        <v>0.66186361028720686</v>
+      </c>
+      <c r="H60" s="3">
+        <f>I47</f>
+        <v>0.681301646587816</v>
+      </c>
+      <c r="I60" s="3">
+        <f>I50</f>
+        <v>0.65850696351630111</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 3 Simd128</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="3">
+        <f>I30</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <f>I33</f>
+        <v>0.45483477569014652</v>
+      </c>
+      <c r="D61" s="3">
+        <f>I36</f>
+        <v>0.57517102851888324</v>
+      </c>
+      <c r="E61" s="3">
+        <f>I39</f>
+        <v>0.65853642630284925</v>
+      </c>
+      <c r="F61" s="3">
+        <f>I42</f>
+        <v>0.62266119723224012</v>
+      </c>
+      <c r="G61" s="3">
+        <f>I45</f>
+        <v>0.64758668814441389</v>
+      </c>
+      <c r="H61" s="3">
+        <f>I48</f>
+        <v>0.68517057200806075</v>
+      </c>
+      <c r="I61" s="3">
+        <f>I51</f>
+        <v>0.66709274343439617</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 3 Simd256</v>
-      </c>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 3 No Simd</v>
-      </c>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 4 Simd128</v>
-      </c>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 4 Simd256</v>
-      </c>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 4 No Simd</v>
-      </c>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 5 Simd128</v>
-      </c>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 5 Simd256</v>
-      </c>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 5 No Simd</v>
-      </c>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 6 Simd128</v>
-      </c>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 6 Simd256</v>
-      </c>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 6 No Simd</v>
-      </c>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 7 Simd128</v>
-      </c>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 7 Simd256</v>
-      </c>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 7 No Simd</v>
-      </c>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 8 Simd128</v>
-      </c>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 8 Simd256</v>
-      </c>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
-        <f t="shared" si="15"/>
-        <v>Threads: 8 No Simd</v>
-      </c>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A28:F51">
-    <sortCondition ref="B2:B25"/>
-    <sortCondition ref="C2:C25"/>
+  <sortState ref="A54:A77">
+    <sortCondition ref="A54:A77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/all.xlsx
+++ b/all.xlsx
@@ -1366,8 +1366,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="286293352"/>
-        <c:axId val="286292960"/>
+        <c:axId val="232300360"/>
+        <c:axId val="303592240"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1501,7 +1501,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -1585,7 +1585,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -1669,7 +1669,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -1755,7 +1755,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -1838,7 +1838,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -1918,7 +1918,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -1998,7 +1998,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2079,7 +2079,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2160,7 +2160,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2241,7 +2241,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2322,7 +2322,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2402,7 +2402,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2482,7 +2482,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2562,7 +2562,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2642,7 +2642,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>all!$B$59:$F$59</c15:sqref>
@@ -2692,7 +2692,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286293352"/>
+        <c:axId val="232300360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,7 +2735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286292960"/>
+        <c:crossAx val="303592240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2743,7 +2743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286292960"/>
+        <c:axId val="303592240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -2795,7 +2795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286293352"/>
+        <c:crossAx val="232300360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3000,7 +3000,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3062,11 +3061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="286292176"/>
-        <c:axId val="286291784"/>
+        <c:axId val="303586248"/>
+        <c:axId val="303586632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286292176"/>
+        <c:axId val="303586248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3109,7 +3108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286291784"/>
+        <c:crossAx val="303586632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3117,7 +3116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286291784"/>
+        <c:axId val="303586632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286292176"/>
+        <c:crossAx val="303586248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3324,11 +3323,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="286291000"/>
-        <c:axId val="286290608"/>
+        <c:axId val="304405616"/>
+        <c:axId val="304406000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286291000"/>
+        <c:axId val="304405616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,7 +3370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286290608"/>
+        <c:crossAx val="304406000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3379,7 +3378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286290608"/>
+        <c:axId val="304406000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +3429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286291000"/>
+        <c:crossAx val="304405616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3867,11 +3866,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="291780336"/>
-        <c:axId val="291779160"/>
+        <c:axId val="232123960"/>
+        <c:axId val="232125136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291780336"/>
+        <c:axId val="232123960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3914,7 +3913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291779160"/>
+        <c:crossAx val="232125136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3922,7 +3921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291779160"/>
+        <c:axId val="232125136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +3972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291780336"/>
+        <c:crossAx val="232123960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4421,11 +4420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="292162096"/>
-        <c:axId val="352380336"/>
+        <c:axId val="304648664"/>
+        <c:axId val="304649056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292162096"/>
+        <c:axId val="304648664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,7 +4467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352380336"/>
+        <c:crossAx val="304649056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4476,7 +4475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352380336"/>
+        <c:axId val="304649056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292162096"/>
+        <c:crossAx val="304648664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7456,16 +7455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>818028</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>34736</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638734</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>68354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>840442</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>100851</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7486,16 +7485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>655543</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>12326</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>935690</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>806823</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7782,8 +7781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9195,7 +9194,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" ref="A29:A53" si="1">"Threads: "&amp;B3&amp;" "&amp;C3</f>
+        <f t="shared" ref="A29:A51" si="1">"Threads: "&amp;B3&amp;" "&amp;C3</f>
         <v>Threads: 1 Simd128</v>
       </c>
       <c r="B29" s="1">
@@ -9529,7 +9528,7 @@
         <v>0.67834034819774225</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" ref="I37:I51" si="9">(($G$28-G37)/$G$28)</f>
+        <f t="shared" ref="I37" si="9">(($G$28-G37)/$G$28)</f>
         <v>0.67834034819774225</v>
       </c>
     </row>
@@ -9567,7 +9566,7 @@
         <v>0.68048920539641378</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" ref="I38:I51" si="10">(($G$29-G38)/$G$29)</f>
+        <f t="shared" ref="I38" si="10">(($G$29-G38)/$G$29)</f>
         <v>0.67059699488569091</v>
       </c>
     </row>
@@ -9605,7 +9604,7 @@
         <v>0.69004954802962226</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" ref="I39:I51" si="11">(($G$30-G39)/$G$30)</f>
+        <f t="shared" ref="I39" si="11">(($G$30-G39)/$G$30)</f>
         <v>0.65853642630284925</v>
       </c>
     </row>
@@ -9643,7 +9642,7 @@
         <v>0.62747222172891248</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" ref="I40:I51" si="12">(($G$28-G40)/$G$28)</f>
+        <f t="shared" ref="I40" si="12">(($G$28-G40)/$G$28)</f>
         <v>0.62747222172891248</v>
       </c>
     </row>
@@ -9681,7 +9680,7 @@
         <v>0.63858944988071764</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" ref="I41:I51" si="13">(($G$29-G41)/$G$29)</f>
+        <f t="shared" ref="I41" si="13">(($G$29-G41)/$G$29)</f>
         <v>0.62740000244119765</v>
       </c>
     </row>
@@ -9757,7 +9756,7 @@
         <v>0.66016089790264421</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" ref="I43:I51" si="14">(($G$28-G43)/$G$28)</f>
+        <f t="shared" ref="I43" si="14">(($G$28-G43)/$G$28)</f>
         <v>0.66016089790264421</v>
       </c>
     </row>
@@ -9795,7 +9794,7 @@
         <v>0.67201809065454299</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" ref="I44:I51" si="15">(($G$29-G44)/$G$29)</f>
+        <f t="shared" ref="I44" si="15">(($G$29-G44)/$G$29)</f>
         <v>0.66186361028720686</v>
       </c>
     </row>
@@ -9833,7 +9832,7 @@
         <v>0.68011034352116595</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" ref="I45:I51" si="16">(($G$30-G45)/$G$30)</f>
+        <f t="shared" ref="I45" si="16">(($G$30-G45)/$G$30)</f>
         <v>0.64758668814441389</v>
       </c>
     </row>
@@ -9871,7 +9870,7 @@
         <v>0.68234799647184874</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" ref="I46:I51" si="17">(($G$28-G46)/$G$28)</f>
+        <f t="shared" ref="I46" si="17">(($G$28-G46)/$G$28)</f>
         <v>0.68234799647184874</v>
       </c>
     </row>
@@ -9909,7 +9908,7 @@
         <v>0.69087238866492617</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" ref="I47:I51" si="18">(($G$29-G47)/$G$29)</f>
+        <f t="shared" ref="I47" si="18">(($G$29-G47)/$G$29)</f>
         <v>0.681301646587816</v>
       </c>
     </row>
@@ -9947,7 +9946,7 @@
         <v>0.71422567144387816</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" ref="I48:I51" si="19">(($G$30-G48)/$G$30)</f>
+        <f t="shared" ref="I48" si="19">(($G$30-G48)/$G$30)</f>
         <v>0.68517057200806075</v>
       </c>
     </row>
@@ -9985,7 +9984,7 @@
         <v>0.67591918402623619</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" ref="I49:I51" si="20">(($G$28-G49)/$G$28)</f>
+        <f t="shared" ref="I49" si="20">(($G$28-G49)/$G$28)</f>
         <v>0.67591918402623619</v>
       </c>
     </row>
@@ -10023,7 +10022,7 @@
         <v>0.66876224641413162</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" ref="I50:I51" si="21">(($G$29-G50)/$G$29)</f>
+        <f t="shared" ref="I50" si="21">(($G$29-G50)/$G$29)</f>
         <v>0.65850696351630111</v>
       </c>
     </row>
